--- a/Data/VisaConfig.xlsx
+++ b/Data/VisaConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpa11194\Documents\UiPath\AA VISA PROCESS\CREDIT VOUCHER DEPATCHER\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rparobot5\Documents\Uipath\VISA_SETTLEMENT_PROCESS\CREDIT-VOUCHER-DEPATCHER\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F31AB4-661A-4284-970F-7C0DC2FBAC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D41415-11DF-4402-A465-1677C7D56A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>VISA_CardProdEmailTo</t>
+  </si>
+  <si>
+    <t>VISA_CardProdEmailCc</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">

--- a/Data/VisaConfig.xlsx
+++ b/Data/VisaConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpa11194\Documents\UiPath\AA VISA PROCESS\CREDIT VOUCHER DEPATCHER\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A626067-3109-40B0-90FE-E19564F7746A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F31AB4-661A-4284-970F-7C0DC2FBAC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -201,6 +201,21 @@
   </si>
   <si>
     <t>VISA_RobotEmailAddress</t>
+  </si>
+  <si>
+    <t>VISA_ErrorEmailTo</t>
+  </si>
+  <si>
+    <t>VISA_ErrorEmailCc</t>
+  </si>
+  <si>
+    <t>VISA_ReportEmailTo</t>
+  </si>
+  <si>
+    <t>VISA_ReportEmailCc</t>
+  </si>
+  <si>
+    <t>VISA_CardProdEmailTo</t>
   </si>
 </sst>
 </file>
@@ -751,7 +766,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -799,7 +814,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -810,7 +825,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -821,7 +836,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -832,7 +847,7 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,7 +855,7 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
